--- a/arviointi/arviointi-pohja.xlsx
+++ b/arviointi/arviointi-pohja.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\repos\hh-ohjelmistoprojekti-2.github.io\arviointi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FD37CA-4C54-4E64-9862-3D26E8BB6579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D473157-6E6C-460D-BCF9-E90037365805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0AB6FD2F-82C6-4C32-A626-30EFFDCEA259}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Arviointikriteeri</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Projektin laajuus</t>
   </si>
   <si>
-    <t>Versionhallinta</t>
-  </si>
-  <si>
     <t>Tuotantoonvienti</t>
   </si>
   <si>
@@ -65,13 +62,28 @@
     <t>Tiimien välinen koodikatselmointi</t>
   </si>
   <si>
-    <t>Prosessin noudattaminen</t>
-  </si>
-  <si>
     <t>Dokumentaatio</t>
   </si>
   <si>
     <t>Aikataulun noudattaminen</t>
+  </si>
+  <si>
+    <t>Git branchien käyttö</t>
+  </si>
+  <si>
+    <t>Branchien code reviewit</t>
+  </si>
+  <si>
+    <t>Tapahtumien järjestäminen (planning, dailies, review, retro)</t>
+  </si>
+  <si>
+    <t>GitHub releaset</t>
+  </si>
+  <si>
+    <t>Backlog</t>
+  </si>
+  <si>
+    <t>Kommentit</t>
   </si>
 </sst>
 </file>
@@ -452,19 +464,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E6BC62-45A7-44DE-A597-EC15F08333DD}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.54296875" customWidth="1"/>
     <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,8 +487,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -483,74 +499,98 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B7">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
+      <c r="B13">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="1">
-        <f>SUM(B2:B10)</f>
-        <v>20</v>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="1">
+        <f>SUM(B2:B13)</f>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/arviointi/arviointi-pohja.xlsx
+++ b/arviointi/arviointi-pohja.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\repos\hh-ohjelmistoprojekti-2.github.io\arviointi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D473157-6E6C-460D-BCF9-E90037365805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563F1F4D-CA3E-460A-A6B1-74F730616DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0AB6FD2F-82C6-4C32-A626-30EFFDCEA259}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TeamA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +102,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,14 +132,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E6BC62-45A7-44DE-A597-EC15F08333DD}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -496,7 +507,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -504,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -512,7 +523,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -544,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -576,7 +587,7 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -584,14 +595,20 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <f>SUM(B2:B13)</f>
-        <v>25</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
